--- a/Brazil_Data/Forms_mapping.xlsx
+++ b/Brazil_Data/Forms_mapping.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteoramina/Documents/work/consulting/ci/PPC_Baseline Calculation Scripts/PPC_Data_Analysis_Pipeline/Brazil_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E6B90-CBCC-E147-B98A-1F14C1722596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18168730-7E9F-E049-9DF5-2DA26FCBBD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="22020" windowHeight="24000" activeTab="1" xr2:uid="{F1EFB288-A3A9-624D-B458-7C07A2FBB6C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{F1EFB288-A3A9-624D-B458-7C07A2FBB6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="4" r:id="rId1"/>
     <sheet name="paper_to_kobo_map" sheetId="1" r:id="rId2"/>
+    <sheet name="group_map" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">paper_to_kobo_map!$A$1:$E$149</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="320">
   <si>
     <t>na</t>
   </si>
@@ -1040,6 +1041,186 @@
   </si>
   <si>
     <t>?Description_of_subpl_ithin_30m_x_30m_plot2?</t>
+  </si>
+  <si>
+    <t>group_type</t>
+  </si>
+  <si>
+    <t>brazil_group_level_1</t>
+  </si>
+  <si>
+    <t>brazil_group_level_2</t>
+  </si>
+  <si>
+    <t>main_group</t>
+  </si>
+  <si>
+    <t>relevance</t>
+  </si>
+  <si>
+    <t>begin_group</t>
+  </si>
+  <si>
+    <t>Plot_Info</t>
+  </si>
+  <si>
+    <t>Plot Information</t>
+  </si>
+  <si>
+    <t>${Site_Info_SiteSize} = 'Yes'</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>_30x30_Plot_Group</t>
+  </si>
+  <si>
+    <t>Tree Sampling: 30m x 30m Plot (All trees with DBH &gt;10cm are recorded)</t>
+  </si>
+  <si>
+    <t>${Site_Info_SiteSize} = "Yes"</t>
+  </si>
+  <si>
+    <t>begin_repeat</t>
+  </si>
+  <si>
+    <t>_30x30_Plot_Repeat</t>
+  </si>
+  <si>
+    <t>group_un3bb19</t>
+  </si>
+  <si>
+    <t>brazil_label</t>
+  </si>
+  <si>
+    <t>main_label</t>
+  </si>
+  <si>
+    <t>Large2</t>
+  </si>
+  <si>
+    <t>group_an2yk58</t>
+  </si>
+  <si>
+    <t>_30x15_Plot_Group</t>
+  </si>
+  <si>
+    <t>Special Scenario: Site is too small to accommodate 30m x 30m monitoring plot so a 30mx15m plot is used</t>
+  </si>
+  <si>
+    <t>${Site_Info_SiteSize} = 'No' and ${Site_Info_SiteType} != 'Control'</t>
+  </si>
+  <si>
+    <t>Plot_Info_001</t>
+  </si>
+  <si>
+    <t>_30x15_Plot_Repeat</t>
+  </si>
+  <si>
+    <t>group_dz1zn48</t>
+  </si>
+  <si>
+    <t>_3x3_Subplot_Group</t>
+  </si>
+  <si>
+    <t>Tree Sampling: 3m x 3m Nested Plot (All trees with DBH of 1 - 9.9 cm are recorded). No DBH is collected, only the species, count, and type</t>
+  </si>
+  <si>
+    <t>${Site_Info_SiteType} != 'Control'</t>
+  </si>
+  <si>
+    <t>_3x3_Subplot_Repeat</t>
+  </si>
+  <si>
+    <t>${TreesPresent_3x3_Subplot} != "No"</t>
+  </si>
+  <si>
+    <t>group_ng8mn06</t>
+  </si>
+  <si>
+    <t>Small3</t>
+  </si>
+  <si>
+    <t>Tree Sampling: 3m x 3m Nested Plot (All trees with DBH of 1 - 9.9 cm are recorded)</t>
+  </si>
+  <si>
+    <t>group_ka7vj63</t>
+  </si>
+  <si>
+    <t>_30x30_Plot_Group_Census_10cm</t>
+  </si>
+  <si>
+    <t>Tree Sampling: Census (all trees with DBH of 1 - 9.9cm are recorded in the entire 30m x 30m plot)</t>
+  </si>
+  <si>
+    <t>${Resample_3x3_Subplot} = '2' and ${TreesPresent_3x3_Subplot} != 'Yes'</t>
+  </si>
+  <si>
+    <t>_30x30_Plot_Repeat_Census_10cm</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>group_ql6qg69</t>
+  </si>
+  <si>
+    <t>_3x3_Subplot_Control</t>
+  </si>
+  <si>
+    <t>OPTIONAL 3m x 3m Nested Control Plot (All trees with DBH of 1 - 9.9 cm are recorded). No DBH is collected, only the species, count, and type</t>
+  </si>
+  <si>
+    <t>${Site_Info_SiteType} = 'Control' and ${Site_Info_SiteSize} = 'Yes'</t>
+  </si>
+  <si>
+    <t>group_te7xa83</t>
+  </si>
+  <si>
+    <t>${Do_you_want_to_collect_the_opt} = 'yes'</t>
+  </si>
+  <si>
+    <t>_3x3_ControlSubplot_Repeat</t>
+  </si>
+  <si>
+    <t>${Trees_3x3_ControlSubplot} = 'Yes'</t>
+  </si>
+  <si>
+    <t>controlgroup_ng8mn06</t>
+  </si>
+  <si>
+    <t>_30x30_Plot_Control_Census_10c</t>
+  </si>
+  <si>
+    <t>Tree Sampling: Census (all trees with DBH of 1 - 9.9cm are recorded in the entire 30m x 30m control plot)</t>
+  </si>
+  <si>
+    <t>${Do_you_want_to_collect_the_opt} = 'yes' and ${Resample_3x3_ControlSubplot} = '2' and ${Trees_3x3_ControlSubplot} = 'No'</t>
+  </si>
+  <si>
+    <t>group_ir8ka24</t>
+  </si>
+  <si>
+    <t>_30x30_Plot_Group_Planted_10cm</t>
+  </si>
+  <si>
+    <t>_30x30_Plot_Repeat_Planted_10cm</t>
+  </si>
+  <si>
+    <t>If there are any remaining PLANTED trees that were not already counted (i.e. any PLANTED trees less than 10cm DBH in the 30x30 plot), then they should be recorded below.</t>
+  </si>
+  <si>
+    <t>${Site_Info_SiteType} = 'Restoration'</t>
+  </si>
+  <si>
+    <t>PlantedTrees3</t>
+  </si>
+  <si>
+    <t>If there are any remaining PLANTED trees that were not already counted, then they should be recorded below.</t>
+  </si>
+  <si>
+    <t>brazil_group_level_3</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1150,11 +1331,461 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1180,6 +1811,105 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1657,9 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93032500-61FD-FC43-BA1A-4E7F4E0E4DF0}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2328,7 +3056,7 @@
         <v>217</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25" x14ac:dyDescent="0.3">
@@ -3868,4 +4596,456 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B93C384-397E-0F4B-8749-9F5CCB6F3B1E}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" style="10" customWidth="1"/>
+    <col min="2" max="4" width="17.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="40.88671875" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="10.77734375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="50" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="50" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="50" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="50" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" ht="50" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" ht="100" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Brazil_Data/Forms_mapping.xlsx
+++ b/Brazil_Data/Forms_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteoramina/Documents/work/consulting/ci/PPC_Baseline Calculation Scripts/PPC_Data_Analysis_Pipeline/Brazil_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18168730-7E9F-E049-9DF5-2DA26FCBBD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ECC4E8-74F3-9946-8F42-A2CA88744F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{F1EFB288-A3A9-624D-B458-7C07A2FBB6C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{F1EFB288-A3A9-624D-B458-7C07A2FBB6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="322">
   <si>
     <t>na</t>
   </si>
@@ -1221,6 +1221,12 @@
   </si>
   <si>
     <t>brazil_group_level_3</t>
+  </si>
+  <si>
+    <t>?Notes21?</t>
+  </si>
+  <si>
+    <t>Two columns in Brazil form for one field in main form</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93032500-61FD-FC43-BA1A-4E7F4E0E4DF0}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3078,13 +3086,16 @@
         <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25" x14ac:dyDescent="0.3">
@@ -3644,14 +3655,16 @@
         <v>136</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="1"/>
+      <c r="D85" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="75" x14ac:dyDescent="0.3">
@@ -4297,7 +4310,7 @@
         <v>256</v>
       </c>
       <c r="E129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25" x14ac:dyDescent="0.3">
@@ -4602,8 +4615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B93C384-397E-0F4B-8749-9F5CCB6F3B1E}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
